--- a/widget.xlsx
+++ b/widget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1618s\Desktop\git\ttk_instant_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D058DAC-C8D3-4B7E-92DD-376D8F8CCB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBC282-612A-4B42-BDAE-8C0BC1BCF2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>main_frame</t>
   </si>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>white</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>center</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1192,7 +1200,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1203,7 +1211,8 @@
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -1348,7 +1357,7 @@
         <v>48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1581,7 +1590,7 @@
         <v>49</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1680,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">

--- a/widget.xlsx
+++ b/widget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1618s\Desktop\git\ttk_instant_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBC282-612A-4B42-BDAE-8C0BC1BCF2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C34FA2C-0918-4E0D-BCDF-0F05CFFFACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>main_frame</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>center</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>red</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1200,7 +1204,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1632,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
